--- a/biology/Médecine/Phase_de_désespérance/Phase_de_désespérance.xlsx
+++ b/biology/Médecine/Phase_de_désespérance/Phase_de_désespérance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phase_de_d%C3%A9sesp%C3%A9rance</t>
+          <t>Phase_de_désespérance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phase de désespérance a deux significations:
 Dans les traités d’obstétrique de la fin du XIXe siècle et du début du XXe siècle , elle désignait la période commençant  à dilatation complète jusqu'à la naissance du bébé ou phase d'expulsion. Cette période durait parfois jusqu'à 3 heures.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phase_de_d%C3%A9sesp%C3%A9rance</t>
+          <t>Phase_de_désespérance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Modification hormonale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant la phase de dilatation, l’ocytocine permet les contractions utérines. L’adrénaline, hormone antagoniste à l’ocytocine, doit être à un niveau très bas. Dans les conditions physiologiques optimales, il y a une libération
 explosive de catécholamines (adrénaline) durant les dernières contractions. Ce pic d’adrénaline a lieu lorsque l’ouverture du col de l’utérus est d’environ 8 cm.  
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phase_de_d%C3%A9sesp%C3%A9rance</t>
+          <t>Phase_de_désespérance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Effets sur la parturiente</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Durant les quelques instants que dure cette phase de désespérance, la parturiente qui jusque-là gérait très bien la douleur et la progression de l'accouchement, éprouve des émotions intenses et négatives, une certaine confusion ou des accès de doute. Il peut s'agir d'une panique, une envie irrationnelle de s’enfuir ou un désespoir soudain. Certaines connaitraient même des angoisses de mort devant l'intensité de cette dernière phase du travail. 
-La parturiente peut alors tenir des propos de type « je n’y arriverai pas », « on arrête tout, je rentre chez moi », « tuez-moi qu’on en finisse » ou « je vais mourir »[1].’
+La parturiente peut alors tenir des propos de type « je n’y arriverai pas », « on arrête tout, je rentre chez moi », « tuez-moi qu’on en finisse » ou « je vais mourir ».’
 Cette courte phase est immédiatement suivie par un regain d’énergie et de puissance chez la future mère. Les  contractions sont décuplées et aboutissent à l’expulsion du bébé dans les minutes qui suivent.
 </t>
         </is>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phase_de_d%C3%A9sesp%C3%A9rance</t>
+          <t>Phase_de_désespérance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Accompagnement de la phase de désespérance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La phase de désespérance n’est pas reconnue par la médecine conventionnelle, ce qui a pour conséquence que la seule réponse que le corps médical offre à la parturiente est généralement une péridurale qui s’avère inefficace étant donné la naissance imminente du bébé
 Il est également inutile de tenter de raisonner la parturiente durant cette phase. Il est surtout nécessaire pour les personnes accompagnant la future mère de rester calme et de considérer cette phase comme une bonne nouvelle annonciatrice de l’imminence de la naissance.
